--- a/20170424.xlsx
+++ b/20170424.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>群昵称</t>
   </si>
@@ -34,10 +34,10 @@
     <t>码上行动打卡群-20170424</t>
   </si>
   <si>
-    <t>1;0</t>
-  </si>
-  <si>
-    <t>@@a955e69aaa852f665b2f73c435235125df1f93274583bcf2c2f73120e3a194cd</t>
+    <t>22;6-10</t>
+  </si>
+  <si>
+    <t>@@62691bcc7116be32779a8013b74f39d5d44ac590ef1b82e7aaf07290e092486b</t>
   </si>
   <si>
     <t>【助教】AAA</t>
@@ -46,19 +46,19 @@
     <t>光辉</t>
   </si>
   <si>
-    <t>@967a9f61f0e9627d89ccc96c7ab1c72c</t>
+    <t>@8853be5a34cacd05ba38727623b09ac1</t>
   </si>
   <si>
     <t>周鑫</t>
   </si>
   <si>
-    <t>@6592272ac638f21edfc970f8c7b50873853a51d16dc93ac18c995b4a652e3544</t>
+    <t>@1197df61f0918a99efb7d8b0e22389bd1e7ce7bb340c86df3a77e95edeb73d15</t>
   </si>
   <si>
     <t>Crossin先生</t>
   </si>
   <si>
-    <t>@f948b969c6e9775276bac4ba7e5eb1ea017e2d7f268c9359f0e83d65a87296ce</t>
+    <t>@102b47ae73973e5088124326b7f3b78c70d60021314fe176526093bebcb7f9cb</t>
   </si>
   <si>
     <t>289696142</t>
@@ -67,16 +67,13 @@
     <t>张少杰</t>
   </si>
   <si>
-    <t>@36e2f8efff0858d4be30b55cc1c4eb66</t>
+    <t>@533cf00ac866b56a1dd71798e27793d2</t>
   </si>
   <si>
     <t>bbss</t>
   </si>
   <si>
-    <t>无味</t>
-  </si>
-  <si>
-    <t>@dd28792d2f9410412213c4955162ac514971ec8a556230c1302e80b771317a60</t>
+    <t>@ba88643afed5e548bbad5da0b22308716721c5b1944b2e9c75e8f6569acc09ee</t>
   </si>
   <si>
     <t>sethvoler</t>
@@ -85,13 +82,13 @@
     <t>风华</t>
   </si>
   <si>
-    <t>@6acf36f615a8856c8508ef7c103e668487e86709fcf5e0b35ce5f8fc12b40691</t>
+    <t>@b7e987ef6dc6cf7b34e4fa2a39ca1964aeba9a0c7eeb3db28fc28e1e87389555</t>
   </si>
   <si>
     <t>Verne🐋</t>
   </si>
   <si>
-    <t>@71fb2270d92ecdd18ff1d0157e77b4c6cabf6f0a030ca25e51d4842c1095f53d</t>
+    <t>@d9b8feeb4842823a08db9ec0f07a5de04d7a52ed67628061ebcdae11f1317c2c</t>
   </si>
   <si>
     <t>nku_oliver</t>
@@ -100,13 +97,13 @@
     <t>王闯</t>
   </si>
   <si>
-    <t>@c94a9d3bfb9c6158704339f7edcaad82492ae62ba40a36613d902dd1084a0d91</t>
+    <t>@dab2938855d3233b9325df06a89e3760cc92a6f871b7b7049cddf83e57b619f5</t>
   </si>
   <si>
     <t>C.CHEN</t>
   </si>
   <si>
-    <t>@d59d4dd91e8df2313307bc390e8dc0c3b0b1a1141206329e3269c783df83caa2</t>
+    <t>@e4f1eb1ff047e518d78f38eccf9fcc8eb4673fc5ada9cd9ed4f0130f5ba56741</t>
   </si>
   <si>
     <t>653869920</t>
@@ -115,7 +112,7 @@
     <t>王良峰</t>
   </si>
   <si>
-    <t>@6602ad4efaa2aa92de33af484643457e</t>
+    <t>@ea29f53ee6e82e78dca3ac7617eb9ffb</t>
   </si>
   <si>
     <t>Angelaxu1116</t>
@@ -124,13 +121,13 @@
     <t>Angela🇺🇸🇺🇸</t>
   </si>
   <si>
-    <t>@bccc4c5b75afe7686a69622dd0f9b537ea93b8a015cad36a25fb632aca382937</t>
+    <t>@87a19c74431d39f5cdfa4931df96eec1724d7b412f10a179a27c958ccbb5cc14</t>
   </si>
   <si>
     <t>xiang</t>
   </si>
   <si>
-    <t>@26ec586ea9909a0afa927b6cd2b66e2d</t>
+    <t>@11f3b0367416d5b01a11b2617e80ea2d</t>
   </si>
   <si>
     <t>yee</t>
@@ -139,19 +136,19 @@
     <t>小由</t>
   </si>
   <si>
-    <t>@9e91b6d72f00c86cdb62465febe8095b1746eb8652bd485b00e255f803251bfa</t>
+    <t>@c1e7f7b8338f35db6721f5db4cac95df087105d89f9cb1894094054dbca8d55c</t>
   </si>
   <si>
     <t>汪小露</t>
   </si>
   <si>
-    <t>@06893f1578832c0a84b5bbedbddb198055a29e8ea084e7d3674524a82a96c2bd</t>
+    <t>@c37bee31037a931d289d3725c986d576974d0e52ae8d5a2e02fef25457d243de</t>
   </si>
   <si>
     <t>最后一班车了。。。</t>
   </si>
   <si>
-    <t>@6255735a4b8f47f660f5de34c685f6031a31f987dc4e3490ca7b0aaaf5df680e</t>
+    <t>@1144eb92f886ca3587b88b6a63cefab8720dcdc7dc1a2d612205a5152a2ed814</t>
   </si>
   <si>
     <t>sean_shen4</t>
@@ -160,7 +157,7 @@
     <t>暴力撕福狗</t>
   </si>
   <si>
-    <t>@4ddf9190d2c07d47608a11eda5d0fa8d</t>
+    <t>@75117c18fb11548d7cb1205fd41109ca</t>
   </si>
   <si>
     <t>vic918</t>
@@ -169,7 +166,7 @@
     <t>伦</t>
   </si>
   <si>
-    <t>@1f2566e2d84453b5716d3ae31c22f896f65f16c07b793d1afa32fe98617471eb</t>
+    <t>@fb7b14d522b2f2da50bc1b10ffeb5221461357dd3c7d54c66c8a8dc90a62804c</t>
   </si>
   <si>
     <t>huqy</t>
@@ -178,13 +175,16 @@
     <t>胡子</t>
   </si>
   <si>
-    <t>@5b13380abb54631ea396b440f305b543</t>
+    <t>@cfcf20e9b905152211df223a35c8bad7</t>
+  </si>
+  <si>
+    <t>15899969160</t>
   </si>
   <si>
     <t>罗力</t>
   </si>
   <si>
-    <t>@2b86e6a169cddf5d4706592d8057f625</t>
+    <t>@2c452244f97acd612d1d1739cd1a84f8</t>
   </si>
   <si>
     <t>18101861337</t>
@@ -193,16 +193,16 @@
     <t>Forrest Gump</t>
   </si>
   <si>
-    <t>@9ad11ebe31e7b3c712367067031a223c</t>
+    <t>@71ce809b185744949c7650826e2665a6</t>
   </si>
   <si>
     <t>子木</t>
   </si>
   <si>
-    <t>玉启</t>
-  </si>
-  <si>
-    <t>@f40dab973bcce987b24c5088239dfdf4100ac9d50239776d8c1db5f8187e882d</t>
+    <t>玉啟</t>
+  </si>
+  <si>
+    <t>@06d06b8cccc8e1b50ce2296621691d8988f7f39582d613267b0b2576b283f97f</t>
   </si>
   <si>
     <t>15021956505</t>
@@ -211,7 +211,7 @@
     <t>我家门前有条终日流淌的小河</t>
   </si>
   <si>
-    <t>@65f26641290180c3a958ee19698e9794</t>
+    <t>@e85143da3c4330e97f0ec269e4098076</t>
   </si>
   <si>
     <t>tantan_2017</t>
@@ -220,7 +220,7 @@
     <t>花儿笑了</t>
   </si>
   <si>
-    <t>@38b9115e917590d7f49178826049107f70e4259b76016ca3219003613acc966a</t>
+    <t>@18f6bd643869197613f09e5183b94afea281bb5d11b76a59373dc09c384d2cf2</t>
   </si>
   <si>
     <t>18511588263</t>
@@ -229,13 +229,13 @@
     <t>魏宇Vivian🦋</t>
   </si>
   <si>
-    <t>@c127dd4c0719fd26c695dff8028bb7fa</t>
+    <t>@2a3ce6880642a8a42d9decbcf96da448</t>
   </si>
   <si>
     <t>米斯特。 罗伯斯特</t>
   </si>
   <si>
-    <t>@2ddad56f63c81f95fcaf349140e588d9</t>
+    <t>@eb790ca46d3ecb365026cf83e9fa5686</t>
   </si>
   <si>
     <t>Rosazzz</t>
@@ -244,7 +244,7 @@
     <t>Rosa💋</t>
   </si>
   <si>
-    <t>@63416264196b9bb41e7cee5276814146e006bc7b408413943ea995f59b594a6f</t>
+    <t>@df1c03de26bed62ccf9060e4eed70645e3ea0b5c0a60c8ffaf1c8fd313330baf</t>
   </si>
   <si>
     <t>xxmtree</t>
@@ -253,32 +253,374 @@
     <t>熙仔</t>
   </si>
   <si>
-    <t>@b170ae212f69d0a14c3a5387ec2dd964</t>
+    <t>@57d2131799a1f16565c0fb1096af7647</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -286,17 +628,307 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -584,18 +1216,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -636,8 +1265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s"/>
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -645,8 +1273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s"/>
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -670,149 +1297,147 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s"/>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s"/>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
         <v>39</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>40</v>
       </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s"/>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>42</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s"/>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>44</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>47</v>
-      </c>
-      <c r="D18" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
         <v>49</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>50</v>
-      </c>
-      <c r="D19" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
         <v>52</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>53</v>
       </c>
-      <c r="D20" t="s">
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s"/>
       <c r="B21" t="s">
         <v>55</v>
       </c>
@@ -875,8 +1500,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s"/>
+    <row r="27" spans="2:4">
       <c r="B27" t="s">
         <v>72</v>
       </c>
@@ -907,6 +1531,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20170424.xlsx
+++ b/20170424.xlsx
@@ -34,10 +34,10 @@
     <t>码上行动打卡群-20170424</t>
   </si>
   <si>
-    <t>1;0</t>
-  </si>
-  <si>
-    <t>@@a955e69aaa852f665b2f73c435235125df1f93274583bcf2c2f73120e3a194cd</t>
+    <t>2;1-4</t>
+  </si>
+  <si>
+    <t>@@ab53c4511480432a27f57ef1e4ad0113f919ba1420b092dca4ac39a95dc85dde</t>
   </si>
   <si>
     <t>【助教】AAA</t>
@@ -46,19 +46,19 @@
     <t>光辉</t>
   </si>
   <si>
-    <t>@967a9f61f0e9627d89ccc96c7ab1c72c</t>
+    <t>@d3b14c329fa2497b93bb61b45c2062a3</t>
   </si>
   <si>
     <t>周鑫</t>
   </si>
   <si>
-    <t>@6592272ac638f21edfc970f8c7b50873853a51d16dc93ac18c995b4a652e3544</t>
+    <t>@7c48edfc2b99e951313a9e15c9aeb2f6ecd1a6f2593b9cbc38f738db27734014</t>
   </si>
   <si>
     <t>Crossin先生</t>
   </si>
   <si>
-    <t>@f948b969c6e9775276bac4ba7e5eb1ea017e2d7f268c9359f0e83d65a87296ce</t>
+    <t>@943a411321b0b41d5416d21fb7dc79fed4f17e55d1dd75c328baf5e32e02597c</t>
   </si>
   <si>
     <t>289696142</t>
@@ -67,31 +67,28 @@
     <t>张少杰</t>
   </si>
   <si>
-    <t>@36e2f8efff0858d4be30b55cc1c4eb66</t>
+    <t>@449b7daa4b1d01d0758ce14cb27ef1e2</t>
   </si>
   <si>
     <t>bbss</t>
   </si>
   <si>
-    <t>无味</t>
-  </si>
-  <si>
-    <t>@dd28792d2f9410412213c4955162ac514971ec8a556230c1302e80b771317a60</t>
+    <t>@88d59d7debf64bf170c8bf32e388493bed47601f1a9cfae50737a11a373f1a05</t>
   </si>
   <si>
     <t>sethvoler</t>
   </si>
   <si>
-    <t>风华</t>
-  </si>
-  <si>
-    <t>@6acf36f615a8856c8508ef7c103e668487e86709fcf5e0b35ce5f8fc12b40691</t>
-  </si>
-  <si>
-    <t>Verne🐋</t>
-  </si>
-  <si>
-    <t>@71fb2270d92ecdd18ff1d0157e77b4c6cabf6f0a030ca25e51d4842c1095f53d</t>
+    <t>风</t>
+  </si>
+  <si>
+    <t>@0cae110dc8d914f3a939250248faf4352f59d6084685675463b782dd50db0819</t>
+  </si>
+  <si>
+    <t>Verne</t>
+  </si>
+  <si>
+    <t>@a068fb92c54d21219e724f80b621b9e71675c743baf102053cd2e56355139c75</t>
   </si>
   <si>
     <t>nku_oliver</t>
@@ -100,13 +97,13 @@
     <t>王闯</t>
   </si>
   <si>
-    <t>@c94a9d3bfb9c6158704339f7edcaad82492ae62ba40a36613d902dd1084a0d91</t>
+    <t>@a68ce4cc91b9b3a6c007536efe989bd8747b98dfbfab14d6c332686ce51bdf01</t>
   </si>
   <si>
     <t>C.CHEN</t>
   </si>
   <si>
-    <t>@d59d4dd91e8df2313307bc390e8dc0c3b0b1a1141206329e3269c783df83caa2</t>
+    <t>@4a238317150b1a7ce252868396a49b41402adc2bd3909e4cd809f3918c903e16</t>
   </si>
   <si>
     <t>653869920</t>
@@ -115,7 +112,7 @@
     <t>王良峰</t>
   </si>
   <si>
-    <t>@6602ad4efaa2aa92de33af484643457e</t>
+    <t>@3e506d6684a752a1274a880c2ef3c5d7</t>
   </si>
   <si>
     <t>Angelaxu1116</t>
@@ -124,13 +121,13 @@
     <t>Angela🇺🇸🇺🇸</t>
   </si>
   <si>
-    <t>@bccc4c5b75afe7686a69622dd0f9b537ea93b8a015cad36a25fb632aca382937</t>
+    <t>@df3b1f785b9c9fc4c10efee2b8ecbd81b132bb89c0b2491b837f45258c704d94</t>
   </si>
   <si>
     <t>xiang</t>
   </si>
   <si>
-    <t>@26ec586ea9909a0afa927b6cd2b66e2d</t>
+    <t>@a186f31d3a04ec1ab39865471fa0de44</t>
   </si>
   <si>
     <t>yee</t>
@@ -139,19 +136,19 @@
     <t>小由</t>
   </si>
   <si>
-    <t>@9e91b6d72f00c86cdb62465febe8095b1746eb8652bd485b00e255f803251bfa</t>
+    <t>@bbec711d4248d7e495444132b958b7eb701c338ab09240ef1468aa75fa0504ae</t>
   </si>
   <si>
     <t>汪小露</t>
   </si>
   <si>
-    <t>@06893f1578832c0a84b5bbedbddb198055a29e8ea084e7d3674524a82a96c2bd</t>
+    <t>@af0fd34ad56500adca6f9ece689dd3a5a9516b5ae85695aff25de4a310335fe3</t>
   </si>
   <si>
     <t>最后一班车了。。。</t>
   </si>
   <si>
-    <t>@6255735a4b8f47f660f5de34c685f6031a31f987dc4e3490ca7b0aaaf5df680e</t>
+    <t>@4768c636b595ec9698134f88c47e56d746985f74323e7da853a6a831518f1cee</t>
   </si>
   <si>
     <t>sean_shen4</t>
@@ -160,7 +157,7 @@
     <t>暴力撕福狗</t>
   </si>
   <si>
-    <t>@4ddf9190d2c07d47608a11eda5d0fa8d</t>
+    <t>@5dadaf74f25dbe8ea2d5506e2686f267</t>
   </si>
   <si>
     <t>vic918</t>
@@ -169,7 +166,7 @@
     <t>伦</t>
   </si>
   <si>
-    <t>@1f2566e2d84453b5716d3ae31c22f896f65f16c07b793d1afa32fe98617471eb</t>
+    <t>@af1d43518efd33bda31aad38cbeed6a6cf516ebe454ac2edbd6427ff4c4ecaca</t>
   </si>
   <si>
     <t>huqy</t>
@@ -178,13 +175,16 @@
     <t>胡子</t>
   </si>
   <si>
-    <t>@5b13380abb54631ea396b440f305b543</t>
+    <t>@7eb1e79331fba5a15df3452d100224d0</t>
+  </si>
+  <si>
+    <t>15899969160</t>
   </si>
   <si>
     <t>罗力</t>
   </si>
   <si>
-    <t>@2b86e6a169cddf5d4706592d8057f625</t>
+    <t>@6fd59f3873c0ef3bfe8004a9a9f468e5</t>
   </si>
   <si>
     <t>18101861337</t>
@@ -193,16 +193,16 @@
     <t>Forrest Gump</t>
   </si>
   <si>
-    <t>@9ad11ebe31e7b3c712367067031a223c</t>
+    <t>@4fc6ee9b3ef053baf1035e54cdc10e70</t>
   </si>
   <si>
     <t>子木</t>
   </si>
   <si>
-    <t>玉启</t>
-  </si>
-  <si>
-    <t>@f40dab973bcce987b24c5088239dfdf4100ac9d50239776d8c1db5f8187e882d</t>
+    <t>玉啟</t>
+  </si>
+  <si>
+    <t>@13628ba755b1cf1b7b4ec3d721cd4f9ac4c3a6545c1aa2b813d846d88566321e</t>
   </si>
   <si>
     <t>15021956505</t>
@@ -211,7 +211,7 @@
     <t>我家门前有条终日流淌的小河</t>
   </si>
   <si>
-    <t>@65f26641290180c3a958ee19698e9794</t>
+    <t>@0f791396c652f31d982526488cea769a</t>
   </si>
   <si>
     <t>tantan_2017</t>
@@ -220,7 +220,7 @@
     <t>花儿笑了</t>
   </si>
   <si>
-    <t>@38b9115e917590d7f49178826049107f70e4259b76016ca3219003613acc966a</t>
+    <t>@e4fb9eeff38c016321e56731582e83e37a741c48d0d4919004f415fa2228e65f</t>
   </si>
   <si>
     <t>18511588263</t>
@@ -229,13 +229,13 @@
     <t>魏宇Vivian🦋</t>
   </si>
   <si>
-    <t>@c127dd4c0719fd26c695dff8028bb7fa</t>
+    <t>@7e0f208046c248b8c1994e431366c692</t>
   </si>
   <si>
     <t>米斯特。 罗伯斯特</t>
   </si>
   <si>
-    <t>@2ddad56f63c81f95fcaf349140e588d9</t>
+    <t>@4654d5217e9605c888e929a6a14d019e</t>
   </si>
   <si>
     <t>Rosazzz</t>
@@ -244,7 +244,7 @@
     <t>Rosa💋</t>
   </si>
   <si>
-    <t>@63416264196b9bb41e7cee5276814146e006bc7b408413943ea995f59b594a6f</t>
+    <t>@028c81885e24f8588a8b3d18c0f8d0b8aa55f6451f1fc0e57c165ba5391842b3</t>
   </si>
   <si>
     <t>xxmtree</t>
@@ -253,7 +253,7 @@
     <t>熙仔</t>
   </si>
   <si>
-    <t>@b170ae212f69d0a14c3a5387ec2dd964</t>
+    <t>@df46c782b98e73d883b60c8be61818ed</t>
   </si>
 </sst>
 </file>
@@ -637,7 +637,6 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s"/>
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -646,7 +645,6 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s"/>
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -670,149 +668,147 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s"/>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s"/>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
         <v>39</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>40</v>
       </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s"/>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>42</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="17" spans="1:4">
+      <c r="B17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s"/>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>44</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>47</v>
-      </c>
-      <c r="D18" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
         <v>49</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>50</v>
-      </c>
-      <c r="D19" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
         <v>52</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>53</v>
       </c>
-      <c r="D20" t="s">
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s"/>
       <c r="B21" t="s">
         <v>55</v>
       </c>
@@ -876,7 +872,6 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" t="s"/>
       <c r="B27" t="s">
         <v>72</v>
       </c>
